--- a/data/Behavioral/description/Basic_Demos.xlsx
+++ b/data/Behavioral/description/Basic_Demos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="4820" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="12080" yWindow="2140" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -114,6 +114,22 @@
   </si>
   <si>
     <t>Biobank Data Release Number</t>
+  </si>
+  <si>
+    <t>Participant_Status</t>
+  </si>
+  <si>
+    <t>Participant Status</t>
+  </si>
+  <si>
+    <t>Complete, 
+Dropout, 
+Lost to follow-up</t>
+  </si>
+  <si>
+    <t>Complete=Participant completed study
+Dropout=Participant dropped out of study
+Lost to follow-up=Participant didn't follow up with study coordinators</t>
   </si>
 </sst>
 </file>
@@ -586,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,6 +748,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
